--- a/biology/Zoologie/Graphium_antiphates/Graphium_antiphates.xlsx
+++ b/biology/Zoologie/Graphium_antiphates/Graphium_antiphates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Graphium antiphates ou Sabre à cinq barres[1] est un lépidoptère appartenant à la famille des Papilionidae, sous-famille des Papilioninae et genre Graphium.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Graphium antiphates ou Sabre à cinq barres est un lépidoptère appartenant à la famille des Papilionidae, sous-famille des Papilioninae et genre Graphium.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description de l'image</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sabre à cinq barres est un papillon d'une envergure de 7 à 8 cm. Sa couleur de fond est blanc crème.
 Le dessus de ses deux ailes antérieures est caractérisé par un apex noir et cinq courtes bandes noires partant du bord externe (d'où son nom cinq barres).
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphium antiphates se trouve en Asie du Sud (Inde et Népal), en Chine et en Asie du Sud-Est (Vietnam, Laos, Cambodge, Thaïlande, Malaisie, Bornéo, Sumatra, Java et Bali).
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les forêts tropicales humides depuis le niveau de la mer jusqu'à 600 m d'altitude.
 </t>
@@ -606,7 +624,9 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille mange des feuilles d'Annonaceae des genres Uvaria, Desmos et Melodorum avec une préférence pour Uvaria grandiflora ou des feuilles de Magnoliaceae du genre Michelia.
 </t>
